--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N2">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q2">
-        <v>5.362599181399999</v>
+        <v>11.31839734359111</v>
       </c>
       <c r="R2">
-        <v>48.2633926326</v>
+        <v>101.86557609232</v>
       </c>
       <c r="S2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="T2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N3">
         <v>247.44181</v>
       </c>
       <c r="O3">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P3">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q3">
         <v>117.3495533278444</v>
@@ -635,10 +635,10 @@
         <v>1056.1459799506</v>
       </c>
       <c r="S3">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="T3">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N4">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O4">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P4">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q4">
-        <v>76.07666760112889</v>
+        <v>95.18642974266444</v>
       </c>
       <c r="R4">
-        <v>684.6900084101599</v>
+        <v>856.6778676839799</v>
       </c>
       <c r="S4">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="T4">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N5">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q5">
-        <v>0.8132538676022222</v>
+        <v>1.808366911777778</v>
       </c>
       <c r="R5">
-        <v>7.31928480842</v>
+        <v>16.275302206</v>
       </c>
       <c r="S5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="T5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
     </row>
   </sheetData>
